--- a/biology/Biologie cellulaire et moléculaire/Prosthecobacter/Prosthecobacter.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Prosthecobacter/Prosthecobacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Prosthecobacter sont un genre de bactéries à Gram négatif de la famille des Verrucomicrobiaceae. Son nom, tiré du grec prosthêkê (προσΘήκη,-ης : appendice, attribut) et du néolatin bacter (bacille), fait référence à l'excroissance semblable à celle des Caulobacter que possèdent ces bactéries.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (3 décembre 2022)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (3 décembre 2022) :
 Prosthecobacter algae Lee et al. 2014
 Prosthecobacter debontii Hedlund et al. 1998
 Prosthecobacter dejongeii Hedlund et al. 1998
@@ -547,7 +561,9 @@
           <t>Biologie moléculaire des microtubules</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tubulines, qui sont des composants du microtubule, n'ont jamais été observées chez les bactéries. La plupart des bactéries ont une structure homologue, FtsZ. 
 Les Prosthecobacter sont l'exception à cela, contenant des gènes qui ont une plus grande homologie de séquence à la tubuline eucaryote que FtsZ. 
